--- a/ValueSet-ckd-valueset-ckd.xlsx
+++ b/ValueSet-ckd-valueset-ckd.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/fhir/uv/cpg/ckd/ValueSet/ckd-valueset-ckd</t>
+    <t>http://cqframework.org/cpg-example-ckd/ValueSet/ckd-valueset-ckd</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T18:15:24+00:00</t>
+    <t>2024-11-18T18:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
